--- a/mbs-perturbation/nano/elm/nano_elm_tanh_results.xlsx
+++ b/mbs-perturbation/nano/elm/nano_elm_tanh_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9316239316239316</v>
+        <v>0.9248826291079812</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7397796817625458</v>
+        <v>0.6461139896373056</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9529914529914529</v>
+        <v>0.9483568075117371</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.3529411764705882</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7465753424657533</v>
+        <v>0.4144230769230769</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9141630901287554</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.3125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.411764705882353</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7275176514306949</v>
+        <v>0.5817920918367346</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9399141630901288</v>
+        <v>0.9150943396226415</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5975159862272503</v>
+        <v>0.78359375</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.927038626609442</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.24</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8315381301163292</v>
+        <v>0.7826737967914439</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9331462528887421</v>
+        <v>0.927478076003189</v>
       </c>
       <c r="C7" t="n">
-        <v>0.289412342043921</v>
+        <v>0.2766538461538461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4268879760340861</v>
+        <v>0.3980357877416701</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7285853584005147</v>
+        <v>0.6417193410377122</v>
       </c>
     </row>
   </sheetData>
